--- a/database/industries/ghaza/gheshahdab/cost/yearly.xlsx
+++ b/database/industries/ghaza/gheshahdab/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F17203-4ACE-42B9-A202-3E9603752F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +357,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -368,7 +369,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -415,6 +416,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -450,6 +468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/ghaza/gheshahdab/cost/yearly.xlsx
+++ b/database/industries/ghaza/gheshahdab/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F17203-4ACE-42B9-A202-3E9603752F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05644E5-D702-4588-9D6F-9944E151C0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -641,12 +641,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -656,7 +656,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -724,7 +724,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -756,7 +756,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -778,7 +778,7 @@
         <v>3860405</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -800,7 +800,7 @@
         <v>76373</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -822,7 +822,7 @@
         <v>266927</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -844,7 +844,7 @@
         <v>4203705</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -888,7 +888,7 @@
         <v>4203705</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -954,7 +954,7 @@
         <v>4203705</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1270151</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -998,7 +998,7 @@
         <v>-135221</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>5338635</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>-811657</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>4526978</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1074,7 +1074,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1084,7 +1084,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1094,7 +1094,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1126,7 +1126,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>32137749</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>305945</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>32443694</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1226,7 +1226,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1258,7 +1258,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>98675853</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>44880855</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>143556708</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1338,7 +1338,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1390,7 +1390,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>97096386</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>44915275</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>142011661</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1470,7 +1470,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1522,7 +1522,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>33717216</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>271525</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>33988741</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1612,7 +1612,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1622,7 +1622,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1654,7 +1654,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>172740</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>66217</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>238957</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1734,7 +1734,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>34</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1786,7 +1786,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1732292</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>2418547</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4150839</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1866,7 +1866,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1886,7 +1886,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1918,7 +1918,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>1441928</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>2418477</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>3860405</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1998,7 +1998,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2008,7 +2008,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2018,7 +2018,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2050,7 +2050,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>463104</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>66287</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>529391</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2130,7 +2130,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2150,7 +2150,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2182,7 +2182,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>27</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>216434</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2240,7 +2240,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2250,7 +2250,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2260,7 +2260,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>40</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2292,7 +2292,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>24</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>17555</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>27</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>53888</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2350,7 +2350,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2370,7 +2370,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>41</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2402,7 +2402,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>53845</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2460,7 +2460,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2470,7 +2470,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2480,7 +2480,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>42</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2512,7 +2512,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>24</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>13735</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>27</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>244129</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2570,7 +2570,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2580,7 +2580,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2590,7 +2590,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>43</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2622,7 +2622,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>45</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>46</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>47</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>48</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>49</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>50</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>35656</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>51</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>52</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>53</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>175860</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>12</v>
       </c>
